--- a/Accelerator/Data Observability/Output/project_month_dim.xlsx
+++ b/Accelerator/Data Observability/Output/project_month_dim.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Drift" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Numerical" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorical" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Usage" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,10 +486,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5007.657513867882</v>
+        <v>5009.642359663751</v>
       </c>
       <c r="C2" t="n">
-        <v>809.0215571141844</v>
+        <v>808.0612737739293</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +499,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264.483609921946</v>
+        <v>263.4681858581362</v>
       </c>
       <c r="C3" t="n">
-        <v>1972.21335094991</v>
+        <v>1971.477389070604</v>
       </c>
     </row>
     <row r="4">
@@ -511,10 +512,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.6202266266091</v>
+        <v>137.170842047112</v>
       </c>
       <c r="C4" t="n">
-        <v>792.4339370726389</v>
+        <v>791.8762270096495</v>
       </c>
     </row>
     <row r="5">
@@ -524,10 +525,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1760.262126600255</v>
+        <v>1755.276375161149</v>
       </c>
       <c r="C5" t="n">
-        <v>3803.017217140263</v>
+        <v>3799.524769506221</v>
       </c>
     </row>
     <row r="6">
@@ -537,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1059.332790971652</v>
+        <v>1056.006506297232</v>
       </c>
       <c r="C6" t="n">
-        <v>1782.426661280419</v>
+        <v>1779.802687801041</v>
       </c>
     </row>
     <row r="7">
@@ -550,10 +551,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3583.753821288235</v>
+        <v>3574.701286306266</v>
       </c>
       <c r="C7" t="n">
-        <v>4298.945507642486</v>
+        <v>4293.755365342993</v>
       </c>
     </row>
     <row r="8">
@@ -563,10 +564,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1547.653728176297</v>
+        <v>1547.185698823373</v>
       </c>
       <c r="C8" t="n">
-        <v>449.8412669603249</v>
+        <v>449.3131405452405</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +645,11 @@
           <t>Median</t>
         </is>
       </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>skewness</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -652,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108108</v>
+        <v>108775</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +673,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15174</v>
+        <v>15282</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>37019</v>
+        <v>37126</v>
       </c>
       <c r="J2" t="n">
-        <v>17547.57</v>
+        <v>17668.61</v>
       </c>
       <c r="K2" t="n">
-        <v>16395.5</v>
+        <v>16602</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -689,10 +698,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108108</v>
+        <v>108775</v>
       </c>
       <c r="C3" t="n">
-        <v>9505</v>
+        <v>9590</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -704,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11094</v>
+        <v>11121</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -713,11 +722,14 @@
         <v>195125</v>
       </c>
       <c r="J3" t="n">
-        <v>1816.83</v>
+        <v>1812.12</v>
       </c>
       <c r="K3" t="n">
         <v>600</v>
       </c>
+      <c r="L3" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -726,10 +738,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108108</v>
+        <v>108775</v>
       </c>
       <c r="C4" t="n">
-        <v>53186</v>
+        <v>53776</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -741,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9128</v>
+        <v>9179</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -750,10 +762,13 @@
         <v>115864</v>
       </c>
       <c r="J4" t="n">
-        <v>763.27</v>
+        <v>762.04</v>
       </c>
       <c r="K4" t="n">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9.17</v>
       </c>
     </row>
     <row r="5">
@@ -763,10 +778,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108108</v>
+        <v>108775</v>
       </c>
       <c r="C5" t="n">
-        <v>7827</v>
+        <v>7921</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -778,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27231</v>
+        <v>27280</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -787,10 +802,13 @@
         <v>622800</v>
       </c>
       <c r="J5" t="n">
-        <v>10263.91</v>
+        <v>10239.19</v>
       </c>
       <c r="K5" t="n">
-        <v>3428.33</v>
+        <v>3395</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.15</v>
       </c>
     </row>
     <row r="6">
@@ -800,10 +818,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108108</v>
+        <v>108775</v>
       </c>
       <c r="C6" t="n">
-        <v>18677</v>
+        <v>19076</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -815,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20971</v>
+        <v>21008</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -824,10 +842,13 @@
         <v>470000</v>
       </c>
       <c r="J6" t="n">
-        <v>6111.08</v>
+        <v>6090.47</v>
       </c>
       <c r="K6" t="n">
-        <v>1675</v>
+        <v>1661.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.61</v>
       </c>
     </row>
     <row r="7">
@@ -837,7 +858,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108108</v>
+        <v>108775</v>
       </c>
       <c r="C7" t="n">
         <v>1724</v>
@@ -852,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -861,11 +882,14 @@
         <v>648000</v>
       </c>
       <c r="J7" t="n">
-        <v>17652.17</v>
+        <v>17619.99</v>
       </c>
       <c r="K7" t="n">
         <v>6600</v>
       </c>
+      <c r="L7" t="n">
+        <v>5.99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -874,7 +898,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108108</v>
+        <v>108775</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -889,19 +913,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5304</v>
+        <v>5323</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>15663</v>
+        <v>15718</v>
       </c>
       <c r="J8" t="n">
-        <v>5666.91</v>
+        <v>5703.41</v>
       </c>
       <c r="K8" t="n">
-        <v>4880</v>
+        <v>4953</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +994,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108108</v>
+        <v>108775</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -994,7 +1021,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108108</v>
+        <v>108775</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1011,6 +1038,83 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>Hourly</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>schemaname</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>no_of_times_accessed</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>table_name</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>indexrelname</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>tables_usability</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>index_usability</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptiveai</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>project_month_dim</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Index not used</t>
         </is>
       </c>
     </row>
